--- a/src/Testing Redmine.xlsx
+++ b/src/Testing Redmine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karin\Desktop\Redmine\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BB3E4D-C27F-4D5A-B910-077FFD1D6F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CEC3E7-5245-4784-A9F9-E7002287C5EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{79FFA793-7187-4CC2-8770-E94CB9B91EF7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{79FFA793-7187-4CC2-8770-E94CB9B91EF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Case1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="70">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -121,9 +121,6 @@
     <t>Checking registration form on the site with valid data.</t>
   </si>
   <si>
-    <t>Enviroment:Node.js 18.12.1,Playwright Framework,VSC 1.74.0, Allure - 2.0.0-beta.20</t>
-  </si>
-  <si>
     <t>The https://www.redmine.org/ site should be opened.</t>
   </si>
   <si>
@@ -163,9 +160,6 @@
     <t>The required fields should be displayed like empty.</t>
   </si>
   <si>
-    <t>The invalid data entry message is displayed on the red block.</t>
-  </si>
-  <si>
     <t>Authorization form</t>
   </si>
   <si>
@@ -196,15 +190,6 @@
     <t xml:space="preserve">Click the “Вход” button. </t>
   </si>
   <si>
-    <t>The personal account(page) is opened on the site after authorization with valid data.</t>
-  </si>
-  <si>
-    <t>The entered valid mail is displayed in the “Пользователь” field.</t>
-  </si>
-  <si>
-    <t>The entered valid password is displayed in the “Пароль” field.</t>
-  </si>
-  <si>
     <t>ID_0004</t>
   </si>
   <si>
@@ -229,9 +214,6 @@
     <t>Press the “Enter” button.</t>
   </si>
   <si>
-    <t>The list of suggested information by search is displayed on the new page.</t>
-  </si>
-  <si>
     <t>ID_0005</t>
   </si>
   <si>
@@ -244,13 +226,28 @@
     <t xml:space="preserve">The random text should be visible in the “Поиск” field </t>
   </si>
   <si>
-    <t>The “Результаты (0)” message is displayed on the new page.</t>
-  </si>
-  <si>
     <t>Login: gonegirl</t>
   </si>
   <si>
     <t>Password: GEDXbBAT6PNTmW7</t>
+  </si>
+  <si>
+    <t>The invalid data entry message should be displayed on the red block.</t>
+  </si>
+  <si>
+    <t>The entered valid mail should be displayed in the “Пользователь” field.</t>
+  </si>
+  <si>
+    <t>The entered valid password should be displayed in the “Пароль” field.</t>
+  </si>
+  <si>
+    <t>The personal account(page) should be opened on the site after authorization with valid data.</t>
+  </si>
+  <si>
+    <t>The list of suggested information by search should be displayed on the new page.</t>
+  </si>
+  <si>
+    <t>The “Результаты (0)” message should be displayed on the new page.</t>
   </si>
 </sst>
 </file>
@@ -1036,7 +1033,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H9" s="22"/>
       <c r="I9" s="22"/>
@@ -1066,9 +1063,7 @@
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>27</v>
-      </c>
+      <c r="B11" s="21"/>
       <c r="C11" s="22"/>
       <c r="D11" s="23"/>
       <c r="E11" s="2"/>
@@ -1182,11 +1177,11 @@
         <v>1</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="21" t="s">
@@ -1205,11 +1200,11 @@
         <v>2</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="21" t="s">
@@ -1228,11 +1223,11 @@
         <v>3</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="21" t="s">
@@ -1251,11 +1246,11 @@
         <v>4</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="21" t="s">
@@ -1344,7 +1339,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K21"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1359,7 +1354,7 @@
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1" s="34" t="s">
         <v>1</v>
@@ -1511,7 +1506,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H9" s="22"/>
       <c r="I9" s="22"/>
@@ -1541,9 +1536,7 @@
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>27</v>
-      </c>
+      <c r="B11" s="21"/>
       <c r="C11" s="22"/>
       <c r="D11" s="23"/>
       <c r="E11" s="2"/>
@@ -1591,7 +1584,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1657,11 +1650,11 @@
         <v>1</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="21" t="s">
@@ -1680,11 +1673,11 @@
         <v>2</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="21" t="s">
@@ -1703,11 +1696,11 @@
         <v>3</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="19" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="21" t="s">
@@ -1805,7 +1798,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="D21" sqref="D21:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1821,14 +1814,14 @@
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D1" s="34" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="30"/>
       <c r="F1" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G1" s="22"/>
       <c r="H1" s="22"/>
@@ -1973,7 +1966,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H9" s="22"/>
       <c r="I9" s="22"/>
@@ -1994,7 +1987,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
@@ -2005,9 +1998,7 @@
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>27</v>
-      </c>
+      <c r="B11" s="21"/>
       <c r="C11" s="22"/>
       <c r="D11" s="23"/>
       <c r="E11" s="2"/>
@@ -2015,14 +2006,14 @@
         <v>3</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
       <c r="K11" s="23"/>
       <c r="L11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -2037,7 +2028,7 @@
         <v>4</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="H12" s="22"/>
       <c r="I12" s="22"/>
@@ -2062,7 +2053,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -2128,11 +2119,11 @@
         <v>1</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="21" t="s">
@@ -2151,11 +2142,11 @@
         <v>2</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="19" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="21" t="s">
@@ -2174,11 +2165,11 @@
         <v>3</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="19" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="21" t="s">
@@ -2197,11 +2188,11 @@
         <v>4</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="44" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E21" s="45"/>
       <c r="F21" s="21" t="s">
@@ -2271,8 +2262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32FC9ADE-6152-4CA9-AA00-5522D6761855}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2287,14 +2278,14 @@
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D1" s="34" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="30"/>
       <c r="F1" s="22" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G1" s="22"/>
       <c r="H1" s="22"/>
@@ -2439,7 +2430,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H9" s="22"/>
       <c r="I9" s="22"/>
@@ -2469,9 +2460,7 @@
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>27</v>
-      </c>
+      <c r="B11" s="21"/>
       <c r="C11" s="22"/>
       <c r="D11" s="23"/>
       <c r="E11" s="2"/>
@@ -2519,7 +2508,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -2585,11 +2574,11 @@
         <v>1</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="19" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="21" t="s">
@@ -2608,11 +2597,11 @@
         <v>2</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="19" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="21" t="s">
@@ -2631,11 +2620,11 @@
         <v>3</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="19" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="21" t="s">
@@ -2718,8 +2707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE4810EA-3F78-4CB5-91FA-8EC3468D3336}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20:H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2734,14 +2723,14 @@
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D1" s="34" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="30"/>
       <c r="F1" s="22" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G1" s="22"/>
       <c r="H1" s="22"/>
@@ -2886,7 +2875,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H9" s="22"/>
       <c r="I9" s="22"/>
@@ -2916,9 +2905,7 @@
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>27</v>
-      </c>
+      <c r="B11" s="21"/>
       <c r="C11" s="22"/>
       <c r="D11" s="23"/>
       <c r="E11" s="2"/>
@@ -2966,7 +2953,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -3032,11 +3019,11 @@
         <v>1</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="19" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="21" t="s">
@@ -3055,11 +3042,11 @@
         <v>2</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="19" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="21" t="s">
@@ -3078,11 +3065,11 @@
         <v>3</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="21" t="s">
